--- a/natmiOut/YoungD2/LR-pairs_lrc2p/L1cam-Itgav.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/L1cam-Itgav.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.69585436751226</v>
+        <v>4.471321666666667</v>
       </c>
       <c r="H2">
-        <v>3.69585436751226</v>
+        <v>13.413965</v>
       </c>
       <c r="I2">
-        <v>0.07296492607777932</v>
+        <v>0.083204941376588</v>
       </c>
       <c r="J2">
-        <v>0.07296492607777932</v>
+        <v>0.08320494137658797</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N2">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O2">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P2">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q2">
-        <v>17.24856171879327</v>
+        <v>44.7183601770239</v>
       </c>
       <c r="R2">
-        <v>17.24856171879327</v>
+        <v>402.4652415932151</v>
       </c>
       <c r="S2">
-        <v>0.001276729920002491</v>
+        <v>0.002954918860337908</v>
       </c>
       <c r="T2">
-        <v>0.001276729920002491</v>
+        <v>0.002954918860337908</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.69585436751226</v>
+        <v>4.471321666666667</v>
       </c>
       <c r="H3">
-        <v>3.69585436751226</v>
+        <v>13.413965</v>
       </c>
       <c r="I3">
-        <v>0.07296492607777932</v>
+        <v>0.083204941376588</v>
       </c>
       <c r="J3">
-        <v>0.07296492607777932</v>
+        <v>0.08320494137658797</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N3">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O3">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P3">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q3">
-        <v>261.9769056736204</v>
+        <v>319.1677949315562</v>
       </c>
       <c r="R3">
-        <v>261.9769056736204</v>
+        <v>2872.510154384005</v>
       </c>
       <c r="S3">
-        <v>0.01939139965848595</v>
+        <v>0.02109010556563936</v>
       </c>
       <c r="T3">
-        <v>0.01939139965848595</v>
+        <v>0.02109010556563936</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.69585436751226</v>
+        <v>4.471321666666667</v>
       </c>
       <c r="H4">
-        <v>3.69585436751226</v>
+        <v>13.413965</v>
       </c>
       <c r="I4">
-        <v>0.07296492607777932</v>
+        <v>0.083204941376588</v>
       </c>
       <c r="J4">
-        <v>0.07296492607777932</v>
+        <v>0.08320494137658797</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N4">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O4">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P4">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q4">
-        <v>233.0731702439838</v>
+        <v>312.1155384628967</v>
       </c>
       <c r="R4">
-        <v>233.0731702439838</v>
+        <v>2809.03984616607</v>
       </c>
       <c r="S4">
-        <v>0.01725195960403514</v>
+        <v>0.02062410355741078</v>
       </c>
       <c r="T4">
-        <v>0.01725195960403514</v>
+        <v>0.02062410355741078</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.69585436751226</v>
+        <v>4.471321666666667</v>
       </c>
       <c r="H5">
-        <v>3.69585436751226</v>
+        <v>13.413965</v>
       </c>
       <c r="I5">
-        <v>0.07296492607777932</v>
+        <v>0.083204941376588</v>
       </c>
       <c r="J5">
-        <v>0.07296492607777932</v>
+        <v>0.08320494137658797</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N5">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O5">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P5">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q5">
-        <v>291.1821902936218</v>
+        <v>356.6497040343028</v>
       </c>
       <c r="R5">
-        <v>291.1821902936218</v>
+        <v>3209.847336308726</v>
       </c>
       <c r="S5">
-        <v>0.02155316023333538</v>
+        <v>0.02356685112810485</v>
       </c>
       <c r="T5">
-        <v>0.02155316023333538</v>
+        <v>0.02356685112810484</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.69585436751226</v>
+        <v>4.471321666666667</v>
       </c>
       <c r="H6">
-        <v>3.69585436751226</v>
+        <v>13.413965</v>
       </c>
       <c r="I6">
-        <v>0.07296492607777932</v>
+        <v>0.083204941376588</v>
       </c>
       <c r="J6">
-        <v>0.07296492607777932</v>
+        <v>0.08320494137658797</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N6">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O6">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P6">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q6">
-        <v>111.379406517848</v>
+        <v>135.4911263494772</v>
       </c>
       <c r="R6">
-        <v>111.379406517848</v>
+        <v>1219.420137145295</v>
       </c>
       <c r="S6">
-        <v>0.008244248018576567</v>
+        <v>0.008953040385953213</v>
       </c>
       <c r="T6">
-        <v>0.008244248018576567</v>
+        <v>0.008953040385953211</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.69585436751226</v>
+        <v>4.471321666666667</v>
       </c>
       <c r="H7">
-        <v>3.69585436751226</v>
+        <v>13.413965</v>
       </c>
       <c r="I7">
-        <v>0.07296492607777932</v>
+        <v>0.083204941376588</v>
       </c>
       <c r="J7">
-        <v>0.07296492607777932</v>
+        <v>0.08320494137658797</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.1816314638186</v>
+        <v>20.36135066666667</v>
       </c>
       <c r="N7">
-        <v>19.1816314638186</v>
+        <v>61.084052</v>
       </c>
       <c r="O7">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="P7">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="Q7">
-        <v>70.89251642156457</v>
+        <v>91.04214839846446</v>
       </c>
       <c r="R7">
-        <v>70.89251642156457</v>
+        <v>819.3793355861801</v>
       </c>
       <c r="S7">
-        <v>0.005247428643343814</v>
+        <v>0.006015921879141886</v>
       </c>
       <c r="T7">
-        <v>0.005247428643343814</v>
+        <v>0.006015921879141885</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.431079089072683</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="H8">
-        <v>0.431079089072683</v>
+        <v>1.354768</v>
       </c>
       <c r="I8">
-        <v>0.008510523072649297</v>
+        <v>0.008403435674603098</v>
       </c>
       <c r="J8">
-        <v>0.008510523072649297</v>
+        <v>0.008403435674603096</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N8">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O8">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P8">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q8">
-        <v>2.011847203426554</v>
+        <v>4.516412811596444</v>
       </c>
       <c r="R8">
-        <v>2.011847203426554</v>
+        <v>40.647715304368</v>
       </c>
       <c r="S8">
-        <v>0.0001489159247573322</v>
+        <v>0.0002984374504169547</v>
       </c>
       <c r="T8">
-        <v>0.0001489159247573322</v>
+        <v>0.0002984374504169547</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.431079089072683</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="H9">
-        <v>0.431079089072683</v>
+        <v>1.354768</v>
       </c>
       <c r="I9">
-        <v>0.008510523072649297</v>
+        <v>0.008403435674603098</v>
       </c>
       <c r="J9">
-        <v>0.008510523072649297</v>
+        <v>0.008403435674603096</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N9">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O9">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P9">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q9">
-        <v>30.55660603095716</v>
+        <v>32.23493688881955</v>
       </c>
       <c r="R9">
-        <v>30.55660603095716</v>
+        <v>290.114431999376</v>
       </c>
       <c r="S9">
-        <v>0.002261784710486628</v>
+        <v>0.002130033896536192</v>
       </c>
       <c r="T9">
-        <v>0.002261784710486628</v>
+        <v>0.002130033896536192</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.431079089072683</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="H10">
-        <v>0.431079089072683</v>
+        <v>1.354768</v>
       </c>
       <c r="I10">
-        <v>0.008510523072649297</v>
+        <v>0.008403435674603098</v>
       </c>
       <c r="J10">
-        <v>0.008510523072649297</v>
+        <v>0.008403435674603096</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N10">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O10">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P10">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q10">
-        <v>27.18531628281903</v>
+        <v>31.52268131102933</v>
       </c>
       <c r="R10">
-        <v>27.18531628281903</v>
+        <v>283.704131799264</v>
       </c>
       <c r="S10">
-        <v>0.002012243527829299</v>
+        <v>0.002082969168941941</v>
       </c>
       <c r="T10">
-        <v>0.002012243527829299</v>
+        <v>0.002082969168941941</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.431079089072683</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="H11">
-        <v>0.431079089072683</v>
+        <v>1.354768</v>
       </c>
       <c r="I11">
-        <v>0.008510523072649297</v>
+        <v>0.008403435674603098</v>
       </c>
       <c r="J11">
-        <v>0.008510523072649297</v>
+        <v>0.008403435674603096</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N11">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O11">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P11">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q11">
-        <v>33.96306803897536</v>
+        <v>36.02049105056889</v>
       </c>
       <c r="R11">
-        <v>33.96306803897536</v>
+        <v>324.18441945512</v>
       </c>
       <c r="S11">
-        <v>0.002513929326246097</v>
+        <v>0.002380177357635892</v>
       </c>
       <c r="T11">
-        <v>0.002513929326246097</v>
+        <v>0.002380177357635892</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.431079089072683</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="H12">
-        <v>0.431079089072683</v>
+        <v>1.354768</v>
       </c>
       <c r="I12">
-        <v>0.008510523072649297</v>
+        <v>0.008403435674603098</v>
       </c>
       <c r="J12">
-        <v>0.008510523072649297</v>
+        <v>0.008403435674603096</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N12">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O12">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P12">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q12">
-        <v>12.99113231441761</v>
+        <v>13.68417483288711</v>
       </c>
       <c r="R12">
-        <v>12.99113231441761</v>
+        <v>123.157573495984</v>
       </c>
       <c r="S12">
-        <v>0.0009615971227593205</v>
+        <v>0.0009042287360670063</v>
       </c>
       <c r="T12">
-        <v>0.0009615971227593205</v>
+        <v>0.000904228736067006</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.431079089072683</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="H13">
-        <v>0.431079089072683</v>
+        <v>1.354768</v>
       </c>
       <c r="I13">
-        <v>0.008510523072649297</v>
+        <v>0.008403435674603098</v>
       </c>
       <c r="J13">
-        <v>0.008510523072649297</v>
+        <v>0.008403435674603096</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.1816314638186</v>
+        <v>20.36135066666667</v>
       </c>
       <c r="N13">
-        <v>19.1816314638186</v>
+        <v>61.084052</v>
       </c>
       <c r="O13">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="P13">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="Q13">
-        <v>8.268800218350837</v>
+        <v>9.194968773326222</v>
       </c>
       <c r="R13">
-        <v>8.268800218350837</v>
+        <v>82.754718959936</v>
       </c>
       <c r="S13">
-        <v>0.0006120524605706213</v>
+        <v>0.0006075890650051117</v>
       </c>
       <c r="T13">
-        <v>0.0006120524605706213</v>
+        <v>0.0006075890650051116</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.0571435599817</v>
+        <v>6.212987666666666</v>
       </c>
       <c r="H14">
-        <v>6.0571435599817</v>
+        <v>18.638963</v>
       </c>
       <c r="I14">
-        <v>0.11958237207113</v>
+        <v>0.1156148703038507</v>
       </c>
       <c r="J14">
-        <v>0.11958237207113</v>
+        <v>0.1156148703038506</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N14">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O14">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P14">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q14">
-        <v>28.26870437653655</v>
+        <v>62.13702367347921</v>
       </c>
       <c r="R14">
-        <v>28.26870437653655</v>
+        <v>559.233213061313</v>
       </c>
       <c r="S14">
-        <v>0.002092435373200183</v>
+        <v>0.004105916729754432</v>
       </c>
       <c r="T14">
-        <v>0.002092435373200183</v>
+        <v>0.004105916729754432</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.0571435599817</v>
+        <v>6.212987666666666</v>
       </c>
       <c r="H15">
-        <v>6.0571435599817</v>
+        <v>18.638963</v>
       </c>
       <c r="I15">
-        <v>0.11958237207113</v>
+        <v>0.1156148703038507</v>
       </c>
       <c r="J15">
-        <v>0.11958237207113</v>
+        <v>0.1156148703038506</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N15">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O15">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P15">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q15">
-        <v>429.3545062309978</v>
+        <v>443.4898048802767</v>
       </c>
       <c r="R15">
-        <v>429.3545062309978</v>
+        <v>3991.40824392249</v>
       </c>
       <c r="S15">
-        <v>0.03178060601979059</v>
+        <v>0.02930510831838654</v>
       </c>
       <c r="T15">
-        <v>0.03178060601979059</v>
+        <v>0.02930510831838654</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.0571435599817</v>
+        <v>6.212987666666666</v>
       </c>
       <c r="H16">
-        <v>6.0571435599817</v>
+        <v>18.638963</v>
       </c>
       <c r="I16">
-        <v>0.11958237207113</v>
+        <v>0.1156148703038507</v>
       </c>
       <c r="J16">
-        <v>0.11958237207113</v>
+        <v>0.1156148703038506</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N16">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O16">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P16">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q16">
-        <v>381.9841129449431</v>
+        <v>433.6905585436526</v>
       </c>
       <c r="R16">
-        <v>381.9841129449431</v>
+        <v>3903.215026892873</v>
       </c>
       <c r="S16">
-        <v>0.02827427317786467</v>
+        <v>0.02865758954304323</v>
       </c>
       <c r="T16">
-        <v>0.02827427317786467</v>
+        <v>0.02865758954304322</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.0571435599817</v>
+        <v>6.212987666666666</v>
       </c>
       <c r="H17">
-        <v>6.0571435599817</v>
+        <v>18.638963</v>
       </c>
       <c r="I17">
-        <v>0.11958237207113</v>
+        <v>0.1156148703038507</v>
       </c>
       <c r="J17">
-        <v>0.11958237207113</v>
+        <v>0.1156148703038506</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N17">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O17">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P17">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q17">
-        <v>477.2191091245769</v>
+        <v>495.5716402611994</v>
       </c>
       <c r="R17">
-        <v>477.2191091245769</v>
+        <v>4460.144762350795</v>
       </c>
       <c r="S17">
-        <v>0.03532352000992852</v>
+        <v>0.03274659403116486</v>
       </c>
       <c r="T17">
-        <v>0.03532352000992852</v>
+        <v>0.03274659403116486</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.0571435599817</v>
+        <v>6.212987666666666</v>
       </c>
       <c r="H18">
-        <v>6.0571435599817</v>
+        <v>18.638963</v>
       </c>
       <c r="I18">
-        <v>0.11958237207113</v>
+        <v>0.1156148703038507</v>
       </c>
       <c r="J18">
-        <v>0.11958237207113</v>
+        <v>0.1156148703038506</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N18">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O18">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P18">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q18">
-        <v>182.5399455223336</v>
+        <v>188.2675324451965</v>
       </c>
       <c r="R18">
-        <v>182.5399455223336</v>
+        <v>1694.407792006769</v>
       </c>
       <c r="S18">
-        <v>0.01351151555958794</v>
+        <v>0.01244042223841255</v>
       </c>
       <c r="T18">
-        <v>0.01351151555958794</v>
+        <v>0.01244042223841255</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.0571435599817</v>
+        <v>6.212987666666666</v>
       </c>
       <c r="H19">
-        <v>6.0571435599817</v>
+        <v>18.638963</v>
       </c>
       <c r="I19">
-        <v>0.11958237207113</v>
+        <v>0.1156148703038507</v>
       </c>
       <c r="J19">
-        <v>0.11958237207113</v>
+        <v>0.1156148703038506</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>19.1816314638186</v>
+        <v>20.36135066666667</v>
       </c>
       <c r="N19">
-        <v>19.1816314638186</v>
+        <v>61.084052</v>
       </c>
       <c r="O19">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="P19">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="Q19">
-        <v>116.1858954910112</v>
+        <v>126.5048205686751</v>
       </c>
       <c r="R19">
-        <v>116.1858954910112</v>
+        <v>1138.543385118076</v>
       </c>
       <c r="S19">
-        <v>0.008600021930758086</v>
+        <v>0.008359239443089054</v>
       </c>
       <c r="T19">
-        <v>0.008600021930758086</v>
+        <v>0.008359239443089053</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.05166258575103</v>
+        <v>6.473970333333334</v>
       </c>
       <c r="H20">
-        <v>5.05166258575103</v>
+        <v>19.421911</v>
       </c>
       <c r="I20">
-        <v>0.09973179419061207</v>
+        <v>0.1204713868104106</v>
       </c>
       <c r="J20">
-        <v>0.09973179419061207</v>
+        <v>0.1204713868104106</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N20">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O20">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P20">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q20">
-        <v>23.57612211638542</v>
+        <v>64.74715055720678</v>
       </c>
       <c r="R20">
-        <v>23.57612211638542</v>
+        <v>582.7243550148611</v>
       </c>
       <c r="S20">
-        <v>0.001745092779001145</v>
+        <v>0.00427838980627311</v>
       </c>
       <c r="T20">
-        <v>0.001745092779001145</v>
+        <v>0.00427838980627311</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.05166258575103</v>
+        <v>6.473970333333334</v>
       </c>
       <c r="H21">
-        <v>5.05166258575103</v>
+        <v>19.421911</v>
       </c>
       <c r="I21">
-        <v>0.09973179419061207</v>
+        <v>0.1204713868104106</v>
       </c>
       <c r="J21">
-        <v>0.09973179419061207</v>
+        <v>0.1204713868104106</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N21">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O21">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P21">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q21">
-        <v>358.0820024607923</v>
+        <v>462.1190309671252</v>
       </c>
       <c r="R21">
-        <v>358.0820024607923</v>
+        <v>4159.071278704128</v>
       </c>
       <c r="S21">
-        <v>0.02650505090276499</v>
+        <v>0.03053609825852775</v>
       </c>
       <c r="T21">
-        <v>0.02650505090276499</v>
+        <v>0.03053609825852775</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.05166258575103</v>
+        <v>6.473970333333334</v>
       </c>
       <c r="H22">
-        <v>5.05166258575103</v>
+        <v>19.421911</v>
       </c>
       <c r="I22">
-        <v>0.09973179419061207</v>
+        <v>0.1204713868104106</v>
       </c>
       <c r="J22">
-        <v>0.09973179419061207</v>
+        <v>0.1204713868104106</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N22">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O22">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P22">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q22">
-        <v>318.5750564777921</v>
+        <v>451.9081576359754</v>
       </c>
       <c r="R22">
-        <v>318.5750564777921</v>
+        <v>4067.173418723778</v>
       </c>
       <c r="S22">
-        <v>0.02358076650115824</v>
+        <v>0.02986137981922687</v>
       </c>
       <c r="T22">
-        <v>0.02358076650115824</v>
+        <v>0.02986137981922687</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.05166258575103</v>
+        <v>6.473970333333334</v>
       </c>
       <c r="H23">
-        <v>5.05166258575103</v>
+        <v>19.421911</v>
       </c>
       <c r="I23">
-        <v>0.09973179419061207</v>
+        <v>0.1204713868104106</v>
       </c>
       <c r="J23">
-        <v>0.09973179419061207</v>
+        <v>0.1204713868104106</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N23">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O23">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P23">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q23">
-        <v>398.0011196527339</v>
+        <v>516.3886151432906</v>
       </c>
       <c r="R23">
-        <v>398.0011196527339</v>
+        <v>4647.497536289616</v>
       </c>
       <c r="S23">
-        <v>0.02945984401131197</v>
+        <v>0.03412214696849901</v>
       </c>
       <c r="T23">
-        <v>0.02945984401131197</v>
+        <v>0.03412214696849902</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.05166258575103</v>
+        <v>6.473970333333334</v>
       </c>
       <c r="H24">
-        <v>5.05166258575103</v>
+        <v>19.421911</v>
       </c>
       <c r="I24">
-        <v>0.09973179419061207</v>
+        <v>0.1204713868104106</v>
       </c>
       <c r="J24">
-        <v>0.09973179419061207</v>
+        <v>0.1204713868104106</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N24">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O24">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P24">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q24">
-        <v>152.238460929427</v>
+        <v>196.1758955871215</v>
       </c>
       <c r="R24">
-        <v>152.238460929427</v>
+        <v>1765.583060284093</v>
       </c>
       <c r="S24">
-        <v>0.01126861481047173</v>
+        <v>0.01296299442822379</v>
       </c>
       <c r="T24">
-        <v>0.01126861481047173</v>
+        <v>0.01296299442822379</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.05166258575103</v>
+        <v>6.473970333333334</v>
       </c>
       <c r="H25">
-        <v>5.05166258575103</v>
+        <v>19.421911</v>
       </c>
       <c r="I25">
-        <v>0.09973179419061207</v>
+        <v>0.1204713868104106</v>
       </c>
       <c r="J25">
-        <v>0.09973179419061207</v>
+        <v>0.1204713868104106</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>19.1816314638186</v>
+        <v>20.36135066666667</v>
       </c>
       <c r="N25">
-        <v>19.1816314638186</v>
+        <v>61.084052</v>
       </c>
       <c r="O25">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="P25">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="Q25">
-        <v>96.89912999943719</v>
+        <v>131.8187801625969</v>
       </c>
       <c r="R25">
-        <v>96.89912999943719</v>
+        <v>1186.369021463372</v>
       </c>
       <c r="S25">
-        <v>0.007172425185904</v>
+        <v>0.008710377529660057</v>
       </c>
       <c r="T25">
-        <v>0.007172425185904</v>
+        <v>0.008710377529660055</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>31.5687969974185</v>
+        <v>32.24961033333333</v>
       </c>
       <c r="H26">
-        <v>31.5687969974185</v>
+        <v>96.748831</v>
       </c>
       <c r="I26">
-        <v>0.6232428851982955</v>
+        <v>0.6001194137310196</v>
       </c>
       <c r="J26">
-        <v>0.6232428851982955</v>
+        <v>0.6001194137310196</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N26">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O26">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P26">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q26">
-        <v>147.3316557558385</v>
+        <v>322.5332011350868</v>
       </c>
       <c r="R26">
-        <v>147.3316557558385</v>
+        <v>2902.798810215781</v>
       </c>
       <c r="S26">
-        <v>0.01090541554325877</v>
+        <v>0.02131248631091141</v>
       </c>
       <c r="T26">
-        <v>0.01090541554325877</v>
+        <v>0.02131248631091141</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>31.5687969974185</v>
+        <v>32.24961033333333</v>
       </c>
       <c r="H27">
-        <v>31.5687969974185</v>
+        <v>96.748831</v>
       </c>
       <c r="I27">
-        <v>0.6232428851982955</v>
+        <v>0.6001194137310196</v>
       </c>
       <c r="J27">
-        <v>0.6232428851982955</v>
+        <v>0.6001194137310196</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N27">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O27">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P27">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q27">
-        <v>2237.722304731733</v>
+        <v>2302.012197920285</v>
       </c>
       <c r="R27">
-        <v>2237.722304731733</v>
+        <v>20718.10978128257</v>
       </c>
       <c r="S27">
-        <v>0.1656350868951068</v>
+        <v>0.1521133430079921</v>
       </c>
       <c r="T27">
-        <v>0.1656350868951068</v>
+        <v>0.1521133430079921</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>31.5687969974185</v>
+        <v>32.24961033333333</v>
       </c>
       <c r="H28">
-        <v>31.5687969974185</v>
+        <v>96.748831</v>
       </c>
       <c r="I28">
-        <v>0.6232428851982955</v>
+        <v>0.6001194137310196</v>
       </c>
       <c r="J28">
-        <v>0.6232428851982955</v>
+        <v>0.6001194137310196</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N28">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O28">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P28">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q28">
-        <v>1990.835911083198</v>
+        <v>2251.147478260215</v>
       </c>
       <c r="R28">
-        <v>1990.835911083198</v>
+        <v>20260.32730434194</v>
       </c>
       <c r="S28">
-        <v>0.1473606793965869</v>
+        <v>0.1487522823864856</v>
       </c>
       <c r="T28">
-        <v>0.1473606793965869</v>
+        <v>0.1487522823864856</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>31.5687969974185</v>
+        <v>32.24961033333333</v>
       </c>
       <c r="H29">
-        <v>31.5687969974185</v>
+        <v>96.748831</v>
       </c>
       <c r="I29">
-        <v>0.6232428851982955</v>
+        <v>0.6001194137310196</v>
       </c>
       <c r="J29">
-        <v>0.6232428851982955</v>
+        <v>0.6001194137310196</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N29">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O29">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P29">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q29">
-        <v>2487.184434388441</v>
+        <v>2572.352167447491</v>
       </c>
       <c r="R29">
-        <v>2487.184434388441</v>
+        <v>23151.16950702741</v>
       </c>
       <c r="S29">
-        <v>0.1841001490859584</v>
+        <v>0.1699769827187691</v>
       </c>
       <c r="T29">
-        <v>0.1841001490859584</v>
+        <v>0.1699769827187692</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>31.5687969974185</v>
+        <v>32.24961033333333</v>
       </c>
       <c r="H30">
-        <v>31.5687969974185</v>
+        <v>96.748831</v>
       </c>
       <c r="I30">
-        <v>0.6232428851982955</v>
+        <v>0.6001194137310196</v>
       </c>
       <c r="J30">
-        <v>0.6232428851982955</v>
+        <v>0.6001194137310196</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N30">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O30">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P30">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q30">
-        <v>951.3669978348329</v>
+        <v>977.2358944715613</v>
       </c>
       <c r="R30">
-        <v>951.3669978348329</v>
+        <v>8795.123050244052</v>
       </c>
       <c r="S30">
-        <v>0.07041970981935612</v>
+        <v>0.06457420988028237</v>
       </c>
       <c r="T30">
-        <v>0.07041970981935612</v>
+        <v>0.06457420988028237</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>31.5687969974185</v>
+        <v>32.24961033333333</v>
       </c>
       <c r="H31">
-        <v>31.5687969974185</v>
+        <v>96.748831</v>
       </c>
       <c r="I31">
-        <v>0.6232428851982955</v>
+        <v>0.6001194137310196</v>
       </c>
       <c r="J31">
-        <v>0.6232428851982955</v>
+        <v>0.6001194137310196</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>19.1816314638186</v>
+        <v>20.36135066666667</v>
       </c>
       <c r="N31">
-        <v>19.1816314638186</v>
+        <v>61.084052</v>
       </c>
       <c r="O31">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="P31">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="Q31">
-        <v>605.5410297605848</v>
+        <v>656.6456248603569</v>
       </c>
       <c r="R31">
-        <v>605.5410297605848</v>
+        <v>5909.810623743212</v>
       </c>
       <c r="S31">
-        <v>0.04482184445802856</v>
+        <v>0.04339010942657898</v>
       </c>
       <c r="T31">
-        <v>0.04482184445802856</v>
+        <v>0.04339010942657898</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>3.84794214837555</v>
+        <v>3.879176</v>
       </c>
       <c r="H32">
-        <v>3.84794214837555</v>
+        <v>11.637528</v>
       </c>
       <c r="I32">
-        <v>0.07596749938953377</v>
+        <v>0.07218595210352802</v>
       </c>
       <c r="J32">
-        <v>0.07596749938953377</v>
+        <v>0.072185952103528</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N32">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O32">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P32">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q32">
-        <v>17.95835577830881</v>
+        <v>38.79622234545867</v>
       </c>
       <c r="R32">
-        <v>17.95835577830881</v>
+        <v>349.166001109128</v>
       </c>
       <c r="S32">
-        <v>0.001329268521631875</v>
+        <v>0.002563593313007041</v>
       </c>
       <c r="T32">
-        <v>0.001329268521631875</v>
+        <v>0.002563593313007041</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>3.84794214837555</v>
+        <v>3.879176</v>
       </c>
       <c r="H33">
-        <v>3.84794214837555</v>
+        <v>11.637528</v>
       </c>
       <c r="I33">
-        <v>0.07596749938953377</v>
+        <v>0.07218595210352802</v>
       </c>
       <c r="J33">
-        <v>0.07596749938953377</v>
+        <v>0.072185952103528</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N33">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O33">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P33">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q33">
-        <v>272.7574944791668</v>
+        <v>276.8997943720773</v>
       </c>
       <c r="R33">
-        <v>272.7574944791668</v>
+        <v>2492.098149348696</v>
       </c>
       <c r="S33">
-        <v>0.02018937345523959</v>
+        <v>0.0182971026123211</v>
       </c>
       <c r="T33">
-        <v>0.02018937345523959</v>
+        <v>0.0182971026123211</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>3.84794214837555</v>
+        <v>3.879176</v>
       </c>
       <c r="H34">
-        <v>3.84794214837555</v>
+        <v>11.637528</v>
       </c>
       <c r="I34">
-        <v>0.07596749938953377</v>
+        <v>0.07218595210352802</v>
       </c>
       <c r="J34">
-        <v>0.07596749938953377</v>
+        <v>0.072185952103528</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N34">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O34">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P34">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q34">
-        <v>242.6643439527681</v>
+        <v>270.781481694416</v>
       </c>
       <c r="R34">
-        <v>242.6643439527681</v>
+        <v>2437.033335249744</v>
       </c>
       <c r="S34">
-        <v>0.01796189348963003</v>
+        <v>0.01789281413991072</v>
       </c>
       <c r="T34">
-        <v>0.01796189348963003</v>
+        <v>0.01789281413991072</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>3.84794214837555</v>
+        <v>3.879176</v>
       </c>
       <c r="H35">
-        <v>3.84794214837555</v>
+        <v>11.637528</v>
       </c>
       <c r="I35">
-        <v>0.07596749938953377</v>
+        <v>0.07218595210352802</v>
       </c>
       <c r="J35">
-        <v>0.07596749938953377</v>
+        <v>0.072185952103528</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N35">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O35">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P35">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q35">
-        <v>303.1646032203731</v>
+        <v>309.4179026776133</v>
       </c>
       <c r="R35">
-        <v>303.1646032203731</v>
+        <v>2784.76112409852</v>
       </c>
       <c r="S35">
-        <v>0.02244009245103673</v>
+        <v>0.02044584803040351</v>
       </c>
       <c r="T35">
-        <v>0.02244009245103673</v>
+        <v>0.02044584803040351</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>3.84794214837555</v>
+        <v>3.879176</v>
       </c>
       <c r="H36">
-        <v>3.84794214837555</v>
+        <v>11.637528</v>
       </c>
       <c r="I36">
-        <v>0.07596749938953377</v>
+        <v>0.07218595210352802</v>
       </c>
       <c r="J36">
-        <v>0.07596749938953377</v>
+        <v>0.072185952103528</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N36">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O36">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P36">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q36">
-        <v>115.9627707651173</v>
+        <v>117.5477777557627</v>
       </c>
       <c r="R36">
-        <v>115.9627707651173</v>
+        <v>1057.929999801864</v>
       </c>
       <c r="S36">
-        <v>0.008583506350034001</v>
+        <v>0.007767372151087416</v>
       </c>
       <c r="T36">
-        <v>0.008583506350034001</v>
+        <v>0.007767372151087414</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>3.84794214837555</v>
+        <v>3.879176</v>
       </c>
       <c r="H37">
-        <v>3.84794214837555</v>
+        <v>11.637528</v>
       </c>
       <c r="I37">
-        <v>0.07596749938953377</v>
+        <v>0.07218595210352802</v>
       </c>
       <c r="J37">
-        <v>0.07596749938953377</v>
+        <v>0.072185952103528</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>19.1816314638186</v>
+        <v>20.36135066666667</v>
       </c>
       <c r="N37">
-        <v>19.1816314638186</v>
+        <v>61.084052</v>
       </c>
       <c r="O37">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="P37">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="Q37">
-        <v>73.80980818423419</v>
+        <v>78.98526283371733</v>
       </c>
       <c r="R37">
-        <v>73.80980818423419</v>
+        <v>710.867365503456</v>
       </c>
       <c r="S37">
-        <v>0.005463365121961563</v>
+        <v>0.005219221856798218</v>
       </c>
       <c r="T37">
-        <v>0.005463365121961563</v>
+        <v>0.005219221856798217</v>
       </c>
     </row>
   </sheetData>
